--- a/hw2/best_oper_result/mutation-8.xlsx
+++ b/hw2/best_oper_result/mutation-8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,10 +219,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:f>Sheet1!$B$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -252,16 +252,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$K$22</c:f>
+              <c:f>Sheet1!$B$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>424.46475000000009</c:v>
                 </c:pt>
@@ -291,6 +294,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>425.74360000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>425.02419999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,11 +313,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="319644464"/>
-        <c:axId val="217989664"/>
+        <c:axId val="238148368"/>
+        <c:axId val="238146688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319644464"/>
+        <c:axId val="238148368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +360,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217989664"/>
+        <c:crossAx val="238146688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217989664"/>
+        <c:axId val="238146688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +419,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319644464"/>
+        <c:crossAx val="238148368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,10 +581,10 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:f>Sheet1!$B$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -608,16 +614,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$K$23</c:f>
+              <c:f>Sheet1!$B$23:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>421.52</c:v>
                 </c:pt>
@@ -647,6 +656,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>422.27100000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>420.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,11 +675,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="217487984"/>
-        <c:axId val="333897472"/>
+        <c:axId val="169111168"/>
+        <c:axId val="169103328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217487984"/>
+        <c:axId val="169111168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +722,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333897472"/>
+        <c:crossAx val="169103328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333897472"/>
+        <c:axId val="169103328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +781,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217487984"/>
+        <c:crossAx val="169111168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1908,20 +1920,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="4" name="차트 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1940,20 +1952,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvPr id="6" name="차트 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2236,15 +2248,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>421.79599999999999</v>
       </c>
@@ -2275,8 +2287,11 @@
       <c r="K1">
         <v>422.27100000000002</v>
       </c>
+      <c r="L1">
+        <v>423.77199999999999</v>
+      </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>427.11200000000002</v>
       </c>
@@ -2307,8 +2322,11 @@
       <c r="K2">
         <v>422.37700000000001</v>
       </c>
+      <c r="L2">
+        <v>423.75099999999998</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>426.673</v>
       </c>
@@ -2339,8 +2357,11 @@
       <c r="K3">
         <v>426.089</v>
       </c>
+      <c r="L3">
+        <v>424.262</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>421.536</v>
       </c>
@@ -2371,8 +2392,11 @@
       <c r="K4">
         <v>425.88799999999998</v>
       </c>
+      <c r="L4">
+        <v>424.20699999999999</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>422.745</v>
       </c>
@@ -2403,8 +2427,11 @@
       <c r="K5">
         <v>426.22399999999999</v>
       </c>
+      <c r="L5">
+        <v>425.49099999999999</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>424.30799999999999</v>
       </c>
@@ -2435,8 +2462,11 @@
       <c r="K6">
         <v>426.31400000000002</v>
       </c>
+      <c r="L6">
+        <v>426.79</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>423.31299999999999</v>
       </c>
@@ -2467,8 +2497,11 @@
       <c r="K7">
         <v>426.93200000000002</v>
       </c>
+      <c r="L7">
+        <v>425.524</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>423.709</v>
       </c>
@@ -2499,8 +2532,11 @@
       <c r="K8">
         <v>427.04</v>
       </c>
+      <c r="L8">
+        <v>424.59100000000001</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>425.6</v>
       </c>
@@ -2531,8 +2567,11 @@
       <c r="K9">
         <v>425.21699999999998</v>
       </c>
+      <c r="L9">
+        <v>426.67</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>426.767</v>
       </c>
@@ -2563,8 +2602,11 @@
       <c r="K10">
         <v>427.11799999999999</v>
       </c>
+      <c r="L10">
+        <v>420.91</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>424.80200000000002</v>
       </c>
@@ -2595,8 +2637,11 @@
       <c r="K11">
         <v>424.91500000000002</v>
       </c>
+      <c r="L11">
+        <v>424.65899999999999</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>424.613</v>
       </c>
@@ -2627,8 +2672,11 @@
       <c r="K12">
         <v>423.488</v>
       </c>
+      <c r="L12">
+        <v>426.42700000000002</v>
+      </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>421.52</v>
       </c>
@@ -2659,8 +2707,11 @@
       <c r="K13">
         <v>426.60199999999998</v>
       </c>
+      <c r="L13">
+        <v>423.15600000000001</v>
+      </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>425.41899999999998</v>
       </c>
@@ -2691,8 +2742,11 @@
       <c r="K14">
         <v>425.50599999999997</v>
       </c>
+      <c r="L14">
+        <v>426.00299999999999</v>
+      </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>424.75099999999998</v>
       </c>
@@ -2723,8 +2777,11 @@
       <c r="K15">
         <v>426.74</v>
       </c>
+      <c r="L15">
+        <v>425.43400000000003</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>424.06200000000001</v>
       </c>
@@ -2755,8 +2812,11 @@
       <c r="K16">
         <v>426.43799999999999</v>
       </c>
+      <c r="L16">
+        <v>424.15899999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>424.63099999999997</v>
       </c>
@@ -2787,8 +2847,11 @@
       <c r="K17">
         <v>426.36599999999999</v>
       </c>
+      <c r="L17">
+        <v>425.702</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>426.25200000000001</v>
       </c>
@@ -2819,8 +2882,11 @@
       <c r="K18">
         <v>427.35</v>
       </c>
+      <c r="L18">
+        <v>427.17500000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>423.89299999999997</v>
       </c>
@@ -2851,8 +2917,11 @@
       <c r="K19">
         <v>426.61200000000002</v>
       </c>
+      <c r="L19">
+        <v>428.089</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>425.79300000000001</v>
       </c>
@@ -2883,8 +2952,11 @@
       <c r="K20">
         <v>425.38499999999999</v>
       </c>
+      <c r="L20">
+        <v>423.71199999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -2915,8 +2987,11 @@
       <c r="K21">
         <v>9</v>
       </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2960,8 +3035,12 @@
         <f t="shared" si="0"/>
         <v>425.74360000000007</v>
       </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="1">AVERAGE(L1:L20)</f>
+        <v>425.02419999999995</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2970,43 +3049,47 @@
         <v>421.52</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:K23" si="1">MIN(C1:C20)</f>
+        <f t="shared" ref="C23:K23" si="2">MIN(C1:C20)</f>
         <v>429.40300000000002</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>428.065</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>421.84500000000003</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>421.67899999999997</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>421.99099999999999</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>421.79599999999999</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>422.47300000000001</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420.96100000000001</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>422.27100000000002</v>
       </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="3">MIN(L1:L20)</f>
+        <v>420.91</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3015,43 +3098,47 @@
         <v>424.62199999999996</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:K24" si="2">MEDIAN(C1:C20)</f>
+        <f t="shared" ref="C24:K24" si="4">MEDIAN(C1:C20)</f>
         <v>431.238</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>431.738</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>425.87200000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>425.23749999999995</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>424.351</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>424.1755</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>425.37549999999999</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>424.947</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>426.26900000000001</v>
       </c>
+      <c r="L24">
+        <f t="shared" ref="L24" si="5">MEDIAN(L1:L20)</f>
+        <v>425.04650000000004</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3060,40 +3147,186 @@
         <v>1.6909683266043056</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:K25" si="3">STDEV(C1:C20)</f>
+        <f t="shared" ref="C25:K25" si="6">STDEV(C1:C20)</f>
         <v>1.0484213433338156</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4609006918948857</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7015576176890972</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.829295262633877</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8550778959386058</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5645111091092672</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8951681497401425</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6653860276382273</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4733010340192205</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="7">STDEV(L1:L20)</f>
+        <v>1.6465704261953262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>SUM(B22:K22)</f>
+        <v>4262.6606000000002</v>
+      </c>
+      <c r="B26">
+        <f>$A$26*10000/B22</f>
+        <v>100424.37210628207</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:K26" si="8">$A$26*10000/C22</f>
+        <v>98809.94654728171</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>98775.384317353979</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="8"/>
+        <v>100101.86169531995</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>100335.19755579722</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>100448.2142688824</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>100444.37982733409</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>100159.08775837719</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>100417.47596372997</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>100122.71705317471</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="9">$A$26*10000/L22</f>
+        <v>100292.1857155428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>INT(B26)</f>
+        <v>100424</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:L27" si="10">INT(C26)</f>
+        <v>98809</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="10"/>
+        <v>98775</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="10"/>
+        <v>100101</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>100335</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>100448</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="10"/>
+        <v>100444</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>100159</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="10"/>
+        <v>100417</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="10"/>
+        <v>100122</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>100292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B27</f>
+        <v>100424</v>
+      </c>
+      <c r="C28">
+        <f>B28+C27</f>
+        <v>199233</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:L28" si="11">C28+D27</f>
+        <v>298008</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="11"/>
+        <v>398109</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="11"/>
+        <v>498444</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="11"/>
+        <v>598892</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="11"/>
+        <v>699336</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="11"/>
+        <v>799495</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="11"/>
+        <v>899912</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="11"/>
+        <v>1000034</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="11"/>
+        <v>1100326</v>
       </c>
     </row>
   </sheetData>

--- a/hw2/best_oper_result/mutation-8.xlsx
+++ b/hw2/best_oper_result/mutation-8.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,29 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
-    <t>average</t>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Mutation</t>
+  </si>
+  <si>
+    <t>Mutation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stdev</t>
+    <t>Stdev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +61,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -85,9 +95,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,17 +121,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -126,7 +129,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -139,7 +141,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -171,13 +172,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -202,7 +197,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -303,29 +297,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="238148368"/>
-        <c:axId val="238146688"/>
+        <c:axId val="5580288"/>
+        <c:axId val="5582208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238148368"/>
+        <c:axId val="5580288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -360,19 +346,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238146688"/>
+        <c:crossAx val="5582208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238146688"/>
+        <c:axId val="5582208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -390,7 +374,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -419,7 +402,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238148368"/>
+        <c:crossAx val="5580288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -433,7 +416,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -462,7 +444,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -470,17 +452,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -488,7 +460,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -501,7 +472,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -533,13 +503,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -564,7 +528,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -665,29 +628,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="169111168"/>
-        <c:axId val="169103328"/>
+        <c:axId val="33870592"/>
+        <c:axId val="33872128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169111168"/>
+        <c:axId val="33870592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -722,19 +677,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169103328"/>
+        <c:crossAx val="33872128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169103328"/>
+        <c:axId val="33872128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -752,7 +705,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -781,7 +733,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169111168"/>
+        <c:crossAx val="33870592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,7 +747,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -824,1096 +775,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2028,7 +893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2063,7 +928,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2240,23 +1105,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="12" width="7.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12">
       <c r="B1">
         <v>421.79599999999999</v>
       </c>
@@ -2291,7 +1160,7 @@
         <v>423.77199999999999</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2">
         <v>427.11200000000002</v>
       </c>
@@ -2326,7 +1195,7 @@
         <v>423.75099999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>426.673</v>
       </c>
@@ -2361,7 +1230,7 @@
         <v>424.262</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>421.536</v>
       </c>
@@ -2396,7 +1265,7 @@
         <v>424.20699999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>422.745</v>
       </c>
@@ -2431,7 +1300,7 @@
         <v>425.49099999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>424.30799999999999</v>
       </c>
@@ -2466,7 +1335,7 @@
         <v>426.79</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>423.31299999999999</v>
       </c>
@@ -2501,7 +1370,7 @@
         <v>425.524</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>423.709</v>
       </c>
@@ -2536,7 +1405,7 @@
         <v>424.59100000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>425.6</v>
       </c>
@@ -2571,7 +1440,7 @@
         <v>426.67</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>426.767</v>
       </c>
@@ -2606,7 +1475,7 @@
         <v>420.91</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>424.80200000000002</v>
       </c>
@@ -2641,7 +1510,7 @@
         <v>424.65899999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>424.613</v>
       </c>
@@ -2676,7 +1545,7 @@
         <v>426.42700000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>421.52</v>
       </c>
@@ -2711,7 +1580,7 @@
         <v>423.15600000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>425.41899999999998</v>
       </c>
@@ -2746,7 +1615,7 @@
         <v>426.00299999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>424.75099999999998</v>
       </c>
@@ -2781,7 +1650,7 @@
         <v>425.43400000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>424.06200000000001</v>
       </c>
@@ -2816,7 +1685,7 @@
         <v>424.15899999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="B17">
         <v>424.63099999999997</v>
       </c>
@@ -2851,7 +1720,7 @@
         <v>425.702</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="B18">
         <v>426.25200000000001</v>
       </c>
@@ -2886,7 +1755,7 @@
         <v>427.17500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="B19">
         <v>423.89299999999997</v>
       </c>
@@ -2921,7 +1790,7 @@
         <v>428.089</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>425.79300000000001</v>
       </c>
@@ -2956,7 +1825,10 @@
         <v>423.71199999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
       <c r="B21">
         <v>0</v>
       </c>
@@ -2991,8 +1863,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22">
@@ -3040,8 +1912,8 @@
         <v>425.02419999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23">
@@ -3089,8 +1961,8 @@
         <v>420.91</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24">
@@ -3138,9 +2010,9 @@
         <v>425.04650000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B25">
         <f>STDEV(B1:B20)</f>
@@ -3187,7 +2059,7 @@
         <v>1.6465704261953262</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <f>SUM(B22:K22)</f>
         <v>4262.6606000000002</v>
@@ -3237,7 +2109,7 @@
         <v>100292.1857155428</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="B27">
         <f>INT(B26)</f>
         <v>100424</v>
@@ -3283,7 +2155,7 @@
         <v>100292</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="B28">
         <f>B27</f>
         <v>100424</v>
@@ -3327,6 +2199,221 @@
       <c r="L28">
         <f t="shared" si="11"/>
         <v>1100326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>424.46475000000009</v>
+      </c>
+      <c r="C31">
+        <v>431.39994999999999</v>
+      </c>
+      <c r="D31">
+        <v>431.55090000000007</v>
+      </c>
+      <c r="E31">
+        <v>425.83230000000003</v>
+      </c>
+      <c r="F31">
+        <v>424.84199999999998</v>
+      </c>
+      <c r="G31">
+        <v>424.36399999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>421.52</v>
+      </c>
+      <c r="C32">
+        <v>429.40300000000002</v>
+      </c>
+      <c r="D32">
+        <v>428.065</v>
+      </c>
+      <c r="E32">
+        <v>421.84500000000003</v>
+      </c>
+      <c r="F32">
+        <v>421.67899999999997</v>
+      </c>
+      <c r="G32">
+        <v>421.99099999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>424.62199999999996</v>
+      </c>
+      <c r="C33">
+        <v>431.238</v>
+      </c>
+      <c r="D33">
+        <v>431.738</v>
+      </c>
+      <c r="E33">
+        <v>425.87200000000001</v>
+      </c>
+      <c r="F33">
+        <v>425.23749999999995</v>
+      </c>
+      <c r="G33">
+        <v>424.351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1.6909683266043056</v>
+      </c>
+      <c r="C34">
+        <v>1.0484213433338156</v>
+      </c>
+      <c r="D34">
+        <v>1.4609006918948857</v>
+      </c>
+      <c r="E34">
+        <v>1.7015576176890972</v>
+      </c>
+      <c r="F34">
+        <v>1.829295262633877</v>
+      </c>
+      <c r="G34">
+        <v>1.8550778959386058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>424.38019999999995</v>
+      </c>
+      <c r="C36">
+        <v>425.58900000000006</v>
+      </c>
+      <c r="D36">
+        <v>424.49390000000005</v>
+      </c>
+      <c r="E36">
+        <v>425.74360000000007</v>
+      </c>
+      <c r="F36">
+        <v>425.02419999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>421.79599999999999</v>
+      </c>
+      <c r="C37">
+        <v>422.47300000000001</v>
+      </c>
+      <c r="D37">
+        <v>420.96100000000001</v>
+      </c>
+      <c r="E37">
+        <v>422.27100000000002</v>
+      </c>
+      <c r="F37">
+        <v>420.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>424.1755</v>
+      </c>
+      <c r="C38">
+        <v>425.37549999999999</v>
+      </c>
+      <c r="D38">
+        <v>424.947</v>
+      </c>
+      <c r="E38">
+        <v>426.26900000000001</v>
+      </c>
+      <c r="F38">
+        <v>425.04650000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1.5645111091092672</v>
+      </c>
+      <c r="C39">
+        <v>1.8951681497401425</v>
+      </c>
+      <c r="D39">
+        <v>1.6653860276382273</v>
+      </c>
+      <c r="E39">
+        <v>1.4733010340192205</v>
+      </c>
+      <c r="F39">
+        <v>1.6465704261953262</v>
       </c>
     </row>
   </sheetData>
